--- a/biology/Médecine/Tafamidis/Tafamidis.xlsx
+++ b/biology/Médecine/Tafamidis/Tafamidis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tafamidis est une molécule indiquée dans le traitement des formes débutantes de neuropathies amyloïdes familiales par mutation Val30Met du gène de la transthyrétine (ou pré-albumine), mutation la plus fréquente, retrouvée chez la totalité des patients d'origine portugaise. Ce médicament est disponible sous une forme associée à la méglumine, le tafamidis méglumine. Il est commercialisé sous le nom Vyndaqel par le laboratoire Pfizer.
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe à la transthyrétine mutée, empêchant la dégradation du tétramère en monomères[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe à la transthyrétine mutée, empêchant la dégradation du tétramère en monomères.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il diminue la mortalité et le risque d'hospitalisation pour raison cardiaque[3]. Il diminue également la progression des lésions neurologiques[4].
-Dans les formes diagnostiquées précocement, il ralentit l'évolution de la maladie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il diminue la mortalité et le risque d'hospitalisation pour raison cardiaque. Il diminue également la progression des lésions neurologiques.
+Dans les formes diagnostiquées précocement, il ralentit l'évolution de la maladie.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Coût</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, le coût annuel du traitement, en 2020, est de 220 000 dollars, soit 880 000 dollars par QALY (année de vie pondérée par la qualité)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, le coût annuel du traitement, en 2020, est de 220 000 dollars, soit 880 000 dollars par QALY (année de vie pondérée par la qualité).
 </t>
         </is>
       </c>
